--- a/getCurrencyExchange/demo.xlsx
+++ b/getCurrencyExchange/demo.xlsx
@@ -7,31 +7,286 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="EUR" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>14.03.2023</t>
+  </si>
+  <si>
+    <t>20.03.2023</t>
+  </si>
+  <si>
+    <t>04.04.2023</t>
+  </si>
+  <si>
+    <t>06.04.2023</t>
+  </si>
+  <si>
+    <t>07.04.2023</t>
+  </si>
+  <si>
+    <t>08.04.2023</t>
+  </si>
+  <si>
+    <t>09.04.2023</t>
+  </si>
+  <si>
+    <t>12.04.2023</t>
+  </si>
+  <si>
+    <t>14.04.2023</t>
+  </si>
+  <si>
+    <t>18.04.2023</t>
+  </si>
+  <si>
+    <t>19.04.2023</t>
+  </si>
+  <si>
+    <t>20.04.2023</t>
+  </si>
+  <si>
+    <t>24.04.2023</t>
+  </si>
+  <si>
+    <t>25.04.2023</t>
+  </si>
+  <si>
+    <t>26.04.2023</t>
+  </si>
+  <si>
+    <t>27.04.2023</t>
+  </si>
+  <si>
+    <t>28.04.2023</t>
+  </si>
+  <si>
+    <t>29.04.2023</t>
+  </si>
+  <si>
+    <t>01.05.2023</t>
+  </si>
+  <si>
+    <t>03.05.2023</t>
+  </si>
+  <si>
+    <t>04.05.2023</t>
+  </si>
+  <si>
+    <t>05.05.2023</t>
+  </si>
+  <si>
+    <t>06.05.2023</t>
+  </si>
+  <si>
+    <t>09.05.2023</t>
+  </si>
+  <si>
+    <t>11.05.2023</t>
+  </si>
+  <si>
+    <t>12.05.2023</t>
+  </si>
+  <si>
+    <t>15.05.2023</t>
+  </si>
+  <si>
+    <t>16.05.2023</t>
+  </si>
+  <si>
+    <t>17.05.2023</t>
+  </si>
+  <si>
+    <t>18.05.2023</t>
+  </si>
+  <si>
+    <t>19.05.2023</t>
+  </si>
+  <si>
+    <t>20.05.2023</t>
+  </si>
+  <si>
+    <t>22.05.2023</t>
+  </si>
+  <si>
+    <t>23.05.2023</t>
+  </si>
+  <si>
+    <t>25.05.2023</t>
+  </si>
+  <si>
+    <t>27.05.2023</t>
+  </si>
+  <si>
+    <t>29.05.2023</t>
+  </si>
+  <si>
+    <t>30.05.2023</t>
+  </si>
+  <si>
+    <t>31.05.2023</t>
+  </si>
+  <si>
+    <t>01.06.2023</t>
+  </si>
+  <si>
+    <t>03.06.2023</t>
+  </si>
+  <si>
+    <t>05.06.2023</t>
+  </si>
+  <si>
+    <t>06.06.2023</t>
+  </si>
+  <si>
+    <t>07.06.2023</t>
+  </si>
+  <si>
+    <t>08.06.2023</t>
+  </si>
+  <si>
+    <t>09.06.2023</t>
+  </si>
+  <si>
+    <t>11.06.2023</t>
+  </si>
+  <si>
+    <t>12.06.2023</t>
+  </si>
+  <si>
+    <t>4.6909</t>
+  </si>
+  <si>
+    <t>4.7109</t>
+  </si>
+  <si>
+    <t>4.6785</t>
+  </si>
+  <si>
+    <t>4.6902</t>
+  </si>
+  <si>
+    <t>4.6862</t>
+  </si>
+  <si>
+    <t>4.6660</t>
+  </si>
+  <si>
+    <t>4.6494</t>
+  </si>
+  <si>
+    <t>4.6286</t>
+  </si>
+  <si>
+    <t>4.6278</t>
+  </si>
+  <si>
+    <t>4.6109</t>
+  </si>
+  <si>
+    <t>4.6129</t>
+  </si>
+  <si>
+    <t>4.5980</t>
+  </si>
+  <si>
+    <t>4.5887</t>
+  </si>
+  <si>
+    <t>4.5915</t>
+  </si>
+  <si>
+    <t>4.5889</t>
+  </si>
+  <si>
+    <t>4.5892</t>
+  </si>
+  <si>
+    <t>4.5868</t>
+  </si>
+  <si>
+    <t>4.5885</t>
+  </si>
+  <si>
+    <t>4.5683</t>
+  </si>
+  <si>
+    <t>4.5276</t>
+  </si>
+  <si>
+    <t>4.5444</t>
+  </si>
+  <si>
+    <t>4.5096</t>
+  </si>
+  <si>
+    <t>4.4904</t>
+  </si>
+  <si>
+    <t>4.4945</t>
+  </si>
+  <si>
+    <t>4.5355</t>
+  </si>
+  <si>
+    <t>4.5367</t>
+  </si>
+  <si>
+    <t>4.5269</t>
+  </si>
+  <si>
+    <t>4.4981</t>
+  </si>
+  <si>
+    <t>4.5030</t>
+  </si>
+  <si>
+    <t>4.5242</t>
+  </si>
+  <si>
+    <t>4.5294</t>
+  </si>
+  <si>
+    <t>4.5220</t>
+  </si>
+  <si>
+    <t>4.5312</t>
+  </si>
+  <si>
+    <t>4.5148</t>
+  </si>
+  <si>
+    <t>4.4851</t>
+  </si>
+  <si>
+    <t>4.4902</t>
+  </si>
+  <si>
+    <t>4.4790</t>
+  </si>
+  <si>
+    <t>4.4717</t>
+  </si>
+  <si>
+    <t>4.4366</t>
   </si>
 </sst>
 </file>
@@ -102,6 +357,257 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>EUR!$C$2:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>4.6909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6862</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6862</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6660</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6494</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6286</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6278</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6109</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6129</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5980</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5887</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5915</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5889</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5889</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5889</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5892</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5868</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5885</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.5885</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5683</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.5276</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5444</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.5444</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.5096</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.4904</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.4945</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.5355</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.5367</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.5367</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.5269</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.4981</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.5030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5242</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.5294</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5294</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.5220</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.5312</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.5148</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.4851</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.4902</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4790</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.4790</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.4717</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.4717</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.4366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,53 +895,564 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
         <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/getCurrencyExchange/demo.xlsx
+++ b/getCurrencyExchange/demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -172,6 +172,9 @@
     <t>12.06.2023</t>
   </si>
   <si>
+    <t>13.06.2023</t>
+  </si>
+  <si>
     <t>4.6909</t>
   </si>
   <si>
@@ -287,6 +290,9 @@
   </si>
   <si>
     <t>4.4366</t>
+  </si>
+  <si>
+    <t>4.4783</t>
   </si>
 </sst>
 </file>
@@ -357,257 +363,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>EUR!$C$2:$C$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-                <c:pt idx="0">
-                  <c:v>4.6909</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.7109</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.6785</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6902</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6862</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.6862</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.6862</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6660</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6494</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.6286</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.6278</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.6109</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.6129</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.5980</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.5887</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.5915</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.5889</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.5889</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.5889</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.5892</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.5868</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.5885</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.5885</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.5683</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.5276</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.5444</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.5444</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.5096</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.4904</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.4945</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.5355</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.5367</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.5367</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.5269</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.4981</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.5030</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.5242</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.5294</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4.5294</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4.5220</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.5312</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.5148</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.4851</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.4902</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.4790</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.4790</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4.4717</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.4717</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.4366</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="50010001"/>
-        <c:axId val="50010002"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="50010001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010002"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50010002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -895,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -920,7 +675,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -931,7 +686,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -942,7 +697,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -953,7 +708,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -964,7 +719,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -975,7 +730,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -986,7 +741,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -997,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1008,7 +763,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1019,7 +774,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1030,7 +785,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1041,7 +796,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1052,7 +807,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1063,7 +818,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1074,7 +829,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1085,7 +840,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1096,7 +851,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1107,7 +862,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1118,7 +873,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1129,7 +884,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1140,7 +895,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1151,7 +906,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1162,7 +917,7 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1173,7 +928,7 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1184,7 +939,7 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1195,7 +950,7 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1206,7 +961,7 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1217,7 +972,7 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1228,7 +983,7 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1239,7 +994,7 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1250,7 +1005,7 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1261,7 +1016,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1272,7 +1027,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1283,7 +1038,7 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1294,7 +1049,7 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1305,7 +1060,7 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1316,7 +1071,7 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1327,7 +1082,7 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1338,7 +1093,7 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1349,7 +1104,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1360,7 +1115,7 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1371,7 +1126,7 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1382,7 +1137,7 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1393,7 +1148,7 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1404,7 +1159,7 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1415,7 +1170,7 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1426,7 +1181,7 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1437,7 +1192,7 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1448,11 +1203,21 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>